--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value609.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value609.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5039817060537477</v>
+        <v>1.070435404777527</v>
       </c>
       <c r="B1">
-        <v>0.4643379084245317</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>0.4556417468927512</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.5637200707245619</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.8372480156306167</v>
+        <v>1.159788846969604</v>
       </c>
     </row>
   </sheetData>
